--- a/doc/data/Lab4/rmse.xlsx
+++ b/doc/data/Lab4/rmse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Repositories\ece16-wi2020-daftcube\doc\data\Lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3389B4-0704-40E9-9EA8-8D458A715017}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547C9CD2-A95E-42F6-8A73-3E88659BFD69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="6864" windowWidth="23256" windowHeight="12576" xr2:uid="{9C944D92-A348-4B0F-B54E-A153D447FA2C}"/>
+    <workbookView xWindow="1152" yWindow="1044" windowWidth="17280" windowHeight="8964" xr2:uid="{9C944D92-A348-4B0F-B54E-A153D447FA2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -909,15 +909,15 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -934,7 +934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -945,7 +945,7 @@
         <v>82.116</v>
       </c>
       <c r="D2">
-        <f>C2-B2</f>
+        <f t="shared" ref="D2:D11" si="0">C2-B2</f>
         <v>5.1159999999999997</v>
       </c>
       <c r="E2">
@@ -953,7 +953,7 @@
         <v>5.4910315697508043</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -964,11 +964,11 @@
         <v>71.167000000000002</v>
       </c>
       <c r="D3">
-        <f>C3-B3</f>
+        <f t="shared" si="0"/>
         <v>-9.8329999999999984</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -979,11 +979,11 @@
         <v>76.641999999999996</v>
       </c>
       <c r="D4">
-        <f>C4-B4</f>
+        <f t="shared" si="0"/>
         <v>2.6419999999999959</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -994,11 +994,11 @@
         <v>73.903999999999996</v>
       </c>
       <c r="D5">
-        <f>C5-B5</f>
+        <f t="shared" si="0"/>
         <v>1.9039999999999964</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1009,11 +1009,11 @@
         <v>71.167000000000002</v>
       </c>
       <c r="D6">
-        <f>C6-B6</f>
+        <f t="shared" si="0"/>
         <v>-6.8329999999999984</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1024,11 +1024,11 @@
         <v>99.873000000000005</v>
       </c>
       <c r="D7">
-        <f>C7-B7</f>
+        <f t="shared" si="0"/>
         <v>-7.1269999999999953</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1039,11 +1039,11 @@
         <v>93.064999999999998</v>
       </c>
       <c r="D8">
-        <f>C8-B8</f>
+        <f t="shared" si="0"/>
         <v>2.0649999999999977</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1054,11 +1054,11 @@
         <v>98.539000000000001</v>
       </c>
       <c r="D9">
-        <f>C9-B9</f>
+        <f t="shared" si="0"/>
         <v>-2.4609999999999985</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1069,11 +1069,11 @@
         <v>95.802000000000007</v>
       </c>
       <c r="D10">
-        <f>C10-B10</f>
+        <f t="shared" si="0"/>
         <v>-6.1979999999999933</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>90.328000000000003</v>
       </c>
       <c r="D11">
-        <f>C11-B11</f>
+        <f t="shared" si="0"/>
         <v>-4.671999999999997</v>
       </c>
     </row>
